--- a/SonarCloud/IT18-2019_Popovic_Milica.xlsx
+++ b/SonarCloud/IT18-2019_Popovic_Milica.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
   <si>
     <t>Upravljanje razvojem informacionih sistema</t>
   </si>
@@ -375,6 +375,15 @@
   </si>
   <si>
     <t xml:space="preserve">Static keyword added to the class declaration </t>
+  </si>
+  <si>
+    <t>S1155</t>
+  </si>
+  <si>
+    <t>Any() should be used to test for emptiness</t>
+  </si>
+  <si>
+    <t>Used Any() instead of Count == 0</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1180,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1189,7 @@
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
     <col min="7" max="7" width="25.44140625" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
     <col min="9" max="9" width="25.88671875" customWidth="1"/>
@@ -1583,14 +1592,30 @@
       <c r="A13" s="7">
         <v>44973</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="16">
+        <v>3</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="J13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1602,9 +1627,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="B14" s="16"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1613,20 +1636,12 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="16"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1635,20 +1650,12 @@
       <c r="G15" s="16"/>
       <c r="H15" s="10"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="16"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1657,20 +1664,12 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="16"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1679,20 +1678,12 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="16"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1701,20 +1692,12 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="16"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1723,20 +1706,12 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="16"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1745,20 +1720,12 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="16"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1767,20 +1734,12 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="16"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1789,20 +1748,12 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="16"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1811,20 +1762,12 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="16"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1833,20 +1776,12 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="16"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1855,20 +1790,12 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="16"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1877,20 +1804,12 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>44973</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="16"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
